--- a/original.xlsx
+++ b/original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marsxinwang/PycharmProjects/stackDataDeal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39B3BDE-138B-3D48-BD1D-D13D847D2312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E35B40-F387-2D4A-B70E-CD31F7CB66A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="401">
   <si>
     <t>证券代码</t>
   </si>
@@ -1120,33 +1120,6 @@
     <t>年份</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>营业收入</t>
   </si>
   <si>
@@ -1169,6 +1142,60 @@
   </si>
   <si>
     <t>营业税金及附加%</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>8.46</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>9.06</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>9.30</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>11.20</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>15.20</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>19.14</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>19.89</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>22.72</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>25.18</t>
   </si>
   <si>
     <t>销售费用%</t>
@@ -1773,14 +1800,14 @@
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.5" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="16" style="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="10.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="16" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.5" style="19" bestFit="1" customWidth="1"/>
     <col min="12" max="18" width="10.1640625" style="19" bestFit="1" customWidth="1"/>
     <col min="20" max="27" width="10.1640625" style="19" bestFit="1" customWidth="1"/>
     <col min="29" max="37" width="10.1640625" style="19" bestFit="1" customWidth="1"/>
@@ -59242,62 +59269,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="AA33" sqref="AA33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>360</v>
       </c>
+      <c r="B1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F1" t="s">
+        <v>365</v>
+      </c>
+      <c r="G1" t="s">
+        <v>366</v>
+      </c>
+      <c r="H1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I1" t="s">
+        <v>368</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>361</v>
+        <v>369</v>
+      </c>
+      <c r="B2" t="s">
+        <v>370</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>362</v>
+        <v>371</v>
+      </c>
+      <c r="B3" t="s">
+        <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>363</v>
+        <v>373</v>
+      </c>
+      <c r="B4" t="s">
+        <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>364</v>
+        <v>375</v>
+      </c>
+      <c r="B5" t="s">
+        <v>376</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>377</v>
+      </c>
+      <c r="B6" t="s">
+        <v>378</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>379</v>
+      </c>
+      <c r="B7" t="s">
+        <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>367</v>
+        <v>381</v>
+      </c>
+      <c r="B8" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>368</v>
+        <v>383</v>
+      </c>
+      <c r="B9" t="s">
+        <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>369</v>
+        <v>385</v>
+      </c>
+      <c r="B10" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -59346,8 +59424,8 @@
     <col min="15" max="15" width="15.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.5" style="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="23" width="10.83203125" style="12" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="12"/>
+    <col min="18" max="24" width="10.83203125" style="12" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="12"/>
   </cols>
   <sheetData>
     <row r="4" spans="1:23">
@@ -59355,70 +59433,70 @@
         <v>360</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="Q4" s="16" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="R4" s="16" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="S4" s="16" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="W4" s="16" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:23">

--- a/original.xlsx
+++ b/original.xlsx
@@ -113,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill/>
     </fill>
@@ -168,6 +168,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ff0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -183,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -254,6 +264,8 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="11" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -58959,11 +58971,6 @@
           <t>1.99</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-0.54</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -58991,11 +58998,6 @@
           <t>1.09</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-0.31</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -59023,11 +59025,6 @@
           <t>2.44</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-1.02</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -59050,14 +59047,19 @@
           <t>2.57</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="25" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="25" t="inlineStr">
         <is>
           <t>-0.69</t>
+        </is>
+      </c>
+      <c r="G5" s="25" t="inlineStr">
+        <is>
+          <t>-3.22</t>
         </is>
       </c>
     </row>
@@ -59082,14 +59084,19 @@
           <t>4.14</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="25" t="inlineStr">
         <is>
           <t>5.22</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="25" t="inlineStr">
         <is>
           <t>-0.51</t>
+        </is>
+      </c>
+      <c r="G6" s="25" t="inlineStr">
+        <is>
+          <t>-6.00</t>
         </is>
       </c>
     </row>
@@ -59114,14 +59121,19 @@
           <t>6.61</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="25" t="inlineStr">
         <is>
           <t>5.59</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" s="25" t="inlineStr">
         <is>
           <t>-1.18</t>
+        </is>
+      </c>
+      <c r="G7" s="25" t="inlineStr">
+        <is>
+          <t>5.44</t>
         </is>
       </c>
     </row>
@@ -59146,14 +59158,19 @@
           <t>6.05</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="25" t="inlineStr">
         <is>
           <t>5.16</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="25" t="inlineStr">
         <is>
           <t>-2.05</t>
+        </is>
+      </c>
+      <c r="G8" s="25" t="inlineStr">
+        <is>
+          <t>-6.12</t>
         </is>
       </c>
     </row>
@@ -59178,14 +59195,19 @@
           <t>7.77</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="25" t="inlineStr">
         <is>
           <t>9.39</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="25" t="inlineStr">
         <is>
           <t>-2.36</t>
+        </is>
+      </c>
+      <c r="G9" s="25" t="inlineStr">
+        <is>
+          <t>-12.17</t>
         </is>
       </c>
     </row>
@@ -59210,14 +59232,19 @@
           <t>7.41</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="25" t="inlineStr">
         <is>
           <t>7.45</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="25" t="inlineStr">
         <is>
           <t>30.12</t>
+        </is>
+      </c>
+      <c r="G10" s="25" t="inlineStr">
+        <is>
+          <t>-34.18</t>
         </is>
       </c>
     </row>
